--- a/others/ゲーム仕様書/03_ゲームメイン/素材一覧/仕様書(ゲームメイン)_素材一覧_ver1.00_2015_10_28_1418.xlsx
+++ b/others/ゲーム仕様書/03_ゲームメイン/素材一覧/仕様書(ゲームメイン)_素材一覧_ver1.00_2015_10_28_1418.xlsx
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
